--- a/biology/Zoologie/Agreste_flamboyant/Agreste_flamboyant.xlsx
+++ b/biology/Zoologie/Agreste_flamboyant/Agreste_flamboyant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia aristaeus
 L'Agreste flamboyant (Hipparchia  aristaeus) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre  Hipparchia.
@@ -512,17 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Hipparchia aristaeus par Franco Andrea Bonelli en 1826.
-Synonymes : Papilio Satyrus aristaeus Bonelli, 1826; ; aristaues blachieri (Fruhstorfer, 1908) ; aristause ballettoi (Kudrna, 1984); Hipparchia blachieri ; [Otakar Kudrna]; Hipparchia aristaeus ; [Otakar Kudrna] [1].
-Noms vernaculaires
-L'Agreste flamboyant se nomme Southern Grayling en anglais[1].
-Sous-espèce
-Hipparchia aristaeus aristaeus en Corse, en Sardaigne, aux îles d'Elbe, de Giglio et de Capraia[2].
-Hipparchia  aristaeus algirica (Oberthür, 1876), l'Agreste d'Algérie parfois considérée comme une espèce distincte : Hipparchia algirica; présent au Maroc, en Algérie et en Tunisie[1].
-Hipparchia aristaeus blachieri en Sicile.
-Hipparchia aristaeus senthes Fuhrfoster, 1908 ; en Albanie, Macédoine, Bulgarie, Grèce et Turquie[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Hipparchia aristaeus par Franco Andrea Bonelli en 1826.
+Synonymes : Papilio Satyrus aristaeus Bonelli, 1826; ; aristaues blachieri (Fruhstorfer, 1908) ; aristause ballettoi (Kudrna, 1984); Hipparchia blachieri ; [Otakar Kudrna]; Hipparchia aristaeus ; [Otakar Kudrna] .
+</t>
         </is>
       </c>
     </row>
@@ -547,10 +555,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste flamboyant se nomme Southern Grayling en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hipparchia aristaeus aristaeus en Corse, en Sardaigne, aux îles d'Elbe, de Giglio et de Capraia.
+Hipparchia  aristaeus algirica (Oberthür, 1876), l'Agreste d'Algérie parfois considérée comme une espèce distincte : Hipparchia algirica; présent au Maroc, en Algérie et en Tunisie.
+Hipparchia aristaeus blachieri en Sicile.
+Hipparchia aristaeus senthes Fuhrfoster, 1908 ; en Albanie, Macédoine, Bulgarie, Grèce et Turquie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agreste flamboyant est de couleur jaune orangé avec une bordure marron, couleur qui occupe aussi l'aire basale, le tout bordé d'une frange entrecoupée. Un ocelle à l'apex des antérieures, un second aux antérieures chez la femelle et un petit ocelles anal aux postérieures, tous pupillés de blanc. 
 Le revers des antérieures est jaune orangé avec deux ocelles noirs pupillés de blanc donc un à l'apex, les postérieures et la bordure des antérieures sont marbrées de marron et de blanc argenté.
@@ -558,71 +644,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agreste_flamboyant</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Agreste flamboyant vole en une génération entre mai et août[3].
-Plantes hôtes
-Sa plante hôte est Lygeum spartum[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste flamboyant vole en une génération entre mai et août.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Agreste_flamboyant</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Lygeum spartum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Agreste flamboyant est présent par sa sous-espèce Hipparchia aristaeus algirica en Afrique du Nord, au Maroc sur tous les reliefs de 1200 à 2 500 mètres, en Algérie et en Tunisie, dans les iles de la Méditerranée, par sa sous-espèce Hipparchia aristaeus aristaeus en Corse et en  Sardaigne, Hipparchia aristaeus blachieri en Sicile Elbe, et Hipparchia aristaeus senthes en Grèce, Albanie, Macédoine, Bulgarie et en Turquie[3].
-Biotope
-Il réside dans les lieux rocheux.
-Protection
-Non menacé au Maroc[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agreste flamboyant est présent par sa sous-espèce Hipparchia aristaeus algirica en Afrique du Nord, au Maroc sur tous les reliefs de 1200 à 2 500 mètres, en Algérie et en Tunisie, dans les iles de la Méditerranée, par sa sous-espèce Hipparchia aristaeus aristaeus en Corse et en  Sardaigne, Hipparchia aristaeus blachieri en Sicile Elbe, et Hipparchia aristaeus senthes en Grèce, Albanie, Macédoine, Bulgarie et en Turquie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux rocheux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agreste_flamboyant</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non menacé au Maroc.
 </t>
         </is>
       </c>
